--- a/data/trans_dic/P11_R2-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P11_R2-Clase-trans_dic.xlsx
@@ -673,7 +673,7 @@
         <v>0.03150139219005267</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>0.0480056672334336</v>
+        <v>0.04800566723343361</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>0.04040374610123863</v>
@@ -685,7 +685,7 @@
         <v>0.03751101882987319</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.0745546615349439</v>
+        <v>0.07455466153494389</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.04100917077716107</v>
@@ -697,7 +697,7 @@
         <v>0.03419327807769909</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.06048284279082227</v>
+        <v>0.06048284279082226</v>
       </c>
     </row>
     <row r="5">
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.02425082775888908</v>
+        <v>0.02675265973732329</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.01662381426500668</v>
+        <v>0.01789540447458929</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03396240549394317</v>
+        <v>0.03256667963115874</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02230250390016586</v>
+        <v>0.02040379496223249</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02604744097654418</v>
+        <v>0.02895009548867067</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.01983649483327077</v>
+        <v>0.02046386050094758</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.05687310936939895</v>
+        <v>0.05574887088819609</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02733586516700785</v>
+        <v>0.02766619158406912</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01471851928050995</v>
+        <v>0.0138427610986136</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.02223435018692127</v>
+        <v>0.02280565967206484</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.04873935368222321</v>
+        <v>0.04834431616459569</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.06305883397783577</v>
+        <v>0.06687670940528667</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01632207490755431</v>
+        <v>0.01696547764911082</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05154360494722809</v>
+        <v>0.0525692902948349</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07037194280746967</v>
+        <v>0.06896537994821064</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.068577850543859</v>
+        <v>0.06661861937242848</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.08206473138044733</v>
+        <v>0.08236624759289965</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.06314569392229041</v>
+        <v>0.06161056748646324</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.0971117268149651</v>
+        <v>0.09632200739289355</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05749748859762986</v>
+        <v>0.0559456173777733</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03967977141267348</v>
+        <v>0.03858387076490757</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.04881549605923324</v>
+        <v>0.05019182115076946</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.07523485856164187</v>
+        <v>0.07632245462875704</v>
       </c>
     </row>
     <row r="7">
@@ -833,7 +833,7 @@
         <v>0.0337609234977353</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.06479158147795801</v>
+        <v>0.06479158147795799</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.009392968018841518</v>
+        <v>0.009298567268604042</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02210655634157006</v>
+        <v>0.02192929801153137</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.009301373728155394</v>
+        <v>0.009132822411073667</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.03620070698382045</v>
+        <v>0.03398564546913038</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01883066256894184</v>
+        <v>0.01906509689156665</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.03554653489255707</v>
+        <v>0.0344501964283943</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.02944635350446455</v>
+        <v>0.02767960111195314</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.06048214180428504</v>
+        <v>0.06242236076942733</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01757653840184989</v>
+        <v>0.01698253218764543</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.03245289674817157</v>
+        <v>0.03347104849151526</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.02159805084772644</v>
+        <v>0.02193887582192004</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05172762770070878</v>
+        <v>0.05168530030878026</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04427229232979665</v>
+        <v>0.04428771456148985</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.06434764927500675</v>
+        <v>0.06407817913401501</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.03887025072612662</v>
+        <v>0.03888867725011844</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.07600323704231868</v>
+        <v>0.07504248483597745</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05885606037484335</v>
+        <v>0.05959935856737091</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.09146208521379032</v>
+        <v>0.09069507165531984</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.07883584393083502</v>
+        <v>0.07569020939319225</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1021658163933551</v>
+        <v>0.1036359350297889</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04341297279185282</v>
+        <v>0.04219754083494977</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.06532534507296091</v>
+        <v>0.06680624055657119</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.05037722181954515</v>
+        <v>0.05037883844181692</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.08085309222740597</v>
+        <v>0.07989843293311541</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.03658812081726584</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.09984488652369528</v>
+        <v>0.09984488652369526</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.09183923655240885</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02357270148486052</v>
+        <v>0.02488838038081655</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0513584561409792</v>
+        <v>0.05238244741491778</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02250345064518641</v>
+        <v>0.02265266039358305</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.07525747397158557</v>
+        <v>0.07325708450229317</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.05232535422917599</v>
+        <v>0.05380259230166853</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.06318857821325247</v>
+        <v>0.06276512445836835</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.07340630329471806</v>
+        <v>0.07248222448853683</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1202937376370997</v>
+        <v>0.1238366193181543</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03631647248523925</v>
+        <v>0.03651765479514237</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.05982955609158639</v>
+        <v>0.06140626871571414</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.03944572800735915</v>
+        <v>0.0420197035168272</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.09559042025761805</v>
+        <v>0.09457043485306084</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.0560830155543713</v>
+        <v>0.05663878477270111</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09671331112026642</v>
+        <v>0.0986682683579914</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05510247227223602</v>
+        <v>0.05602174698431508</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1308325799182004</v>
+        <v>0.1268075236148621</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1477504412986222</v>
+        <v>0.1478973289247106</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1366038643853583</v>
+        <v>0.1381199984715488</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1859785431885392</v>
+        <v>0.1860112483516768</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2086052895894594</v>
+        <v>0.2086741380071982</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0694862619265695</v>
+        <v>0.07052603945754486</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.09929700476655685</v>
+        <v>0.1011076109307575</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.07986094606938045</v>
+        <v>0.07870055078635878</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1428046256850559</v>
+        <v>0.1420905002141111</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.08402430552745975</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.1005533297424513</v>
+        <v>0.1005533297424514</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.03875871868820899</v>
@@ -1105,7 +1105,7 @@
         <v>0.06396935672261121</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1022694629586512</v>
+        <v>0.1022694629586513</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02719695980698962</v>
+        <v>0.02715644044417932</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.05457660092633245</v>
+        <v>0.0550841586454498</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03822007267057485</v>
+        <v>0.03809369982169253</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.08805283593108829</v>
+        <v>0.08688656801405061</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02907589943098163</v>
+        <v>0.0295605784725533</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.05582140444442116</v>
+        <v>0.05551225044860797</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06349479818285229</v>
+        <v>0.06479843741281575</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.0866758157939187</v>
+        <v>0.0856709341016033</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03053892670553725</v>
+        <v>0.03061972905781888</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.05806790982688445</v>
+        <v>0.05891839029921694</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.05307748938876321</v>
+        <v>0.05281477559753581</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.09041163271195465</v>
+        <v>0.09099292303995167</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04733241294062589</v>
+        <v>0.04840866588503182</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.0878375831079108</v>
+        <v>0.08739534986433457</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06445408837111161</v>
+        <v>0.0649612869368774</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1219318921318457</v>
+        <v>0.1224721438352596</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.05778418044691394</v>
+        <v>0.06013830012999144</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.09485077654639824</v>
+        <v>0.09482001194087246</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1060668631722112</v>
+        <v>0.1073270452833311</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1169732821620809</v>
+        <v>0.1177025354760182</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04845483024451937</v>
+        <v>0.04890683653107728</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.082505155889288</v>
+        <v>0.08418169887830967</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.07619291158700216</v>
+        <v>0.07746532343353502</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1150691352159217</v>
+        <v>0.1147929397564121</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.06489082683074841</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.09387921679370288</v>
+        <v>0.09387921679370287</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.0421931789966992</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02559200418453367</v>
+        <v>0.02582503912458847</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.03295153655777996</v>
+        <v>0.03292971713149144</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.04666927931531877</v>
+        <v>0.04796161916505175</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.07123060079518363</v>
+        <v>0.07221280111096164</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.02685484904123974</v>
+        <v>0.02724288039168964</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1054867641281282</v>
+        <v>0.1063665815025654</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.09227114040135412</v>
+        <v>0.0929565226284528</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1588499624324511</v>
+        <v>0.1614179641876838</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03104349066344229</v>
+        <v>0.03132769812818707</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.0808896710382755</v>
+        <v>0.08236435136041639</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.07851420640586658</v>
+        <v>0.07853398082095807</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1297932164327302</v>
+        <v>0.1287870175329298</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0720844869959627</v>
+        <v>0.07128318486827381</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.07075478793264339</v>
+        <v>0.07351047283616065</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08744073933027491</v>
+        <v>0.09023319452669248</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1179030955890939</v>
+        <v>0.119449584542844</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.06110501371030643</v>
+        <v>0.06154897655957907</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1560053939921852</v>
+        <v>0.1533616732319875</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1435473907442416</v>
+        <v>0.1446943693396288</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2039552866462729</v>
+        <v>0.2029197365748481</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.05934288446242641</v>
+        <v>0.05792434897032927</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1138220161174044</v>
+        <v>0.115709586838139</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.1122734905237712</v>
+        <v>0.1107774663653393</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1617653729859268</v>
+        <v>0.1618712888437142</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.1062925714958192</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.1408774895272838</v>
+        <v>0.1408774895272839</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.05512181273566325</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.006507046549179707</v>
+        <v>0.006524956131213347</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.003924294911498261</v>
+        <v>0.003959391216837942</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.003314717556837795</v>
+        <v>0.003356489538349224</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.009266791546725965</v>
+        <v>0.007413070184356626</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.05136145777546763</v>
+        <v>0.0514155555641524</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.1025326878420539</v>
+        <v>0.1045967116271959</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.08739456768078566</v>
+        <v>0.08711575549181363</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1218004711181341</v>
+        <v>0.1215902328595178</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.04490934528584303</v>
+        <v>0.04338644981102862</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.08805427172220548</v>
+        <v>0.08576727895578799</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.07042521376329812</v>
+        <v>0.07122603581607075</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.09840568495520274</v>
+        <v>0.09803601420037168</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03873379412346205</v>
+        <v>0.03907866162157708</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.04776385751966391</v>
+        <v>0.04853572161049979</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.03014147019966139</v>
+        <v>0.03088538663809887</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.04877595984509803</v>
+        <v>0.04875786781637843</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.07873822274758187</v>
+        <v>0.08080008637523201</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.1405616560691909</v>
+        <v>0.1445939442488406</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1287054571010553</v>
+        <v>0.1281135799649567</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1619690329463145</v>
+        <v>0.1626462120451579</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.07012767423833899</v>
+        <v>0.0675311280072672</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.1228467027612665</v>
+        <v>0.1205560852228202</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.1023329706164627</v>
+        <v>0.1035675623048853</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1321423204003444</v>
+        <v>0.1315892986378892</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02951338463980956</v>
+        <v>0.02936461554647691</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.04300046373076398</v>
+        <v>0.04344670635163853</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.03464150653954596</v>
+        <v>0.03520253495898052</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.07142150944587088</v>
+        <v>0.07134527238364922</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.04444187963996403</v>
+        <v>0.04493670291958166</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.08817042474726533</v>
+        <v>0.08793116027360882</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.08143753660606576</v>
+        <v>0.08137909354761577</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1161517693122088</v>
+        <v>0.116561527971476</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.0385563022947296</v>
+        <v>0.03837147052794167</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.06854325830144994</v>
+        <v>0.068991337831226</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.06082218190562223</v>
+        <v>0.06097107756960703</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.09673634684483991</v>
+        <v>0.09742065500705464</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.04203352729105827</v>
+        <v>0.04195448900943191</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.05938912029106937</v>
+        <v>0.05989129209601385</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04836718441270946</v>
+        <v>0.04836420209262719</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.08912440702181725</v>
+        <v>0.08905364372281835</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.05998868834272733</v>
+        <v>0.06032274277330597</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1086423244667249</v>
+        <v>0.1091962673074282</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1019551938409857</v>
+        <v>0.1010162143813613</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.134442725062287</v>
+        <v>0.1344227903611582</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.04876758048991998</v>
+        <v>0.04885322643006598</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.08217178514902715</v>
+        <v>0.08227526377488391</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.07329981990330456</v>
+        <v>0.07370818404361468</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.1096076477531541</v>
+        <v>0.1096737503230919</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>11489</v>
+        <v>12675</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>7054</v>
+        <v>7593</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>18647</v>
+        <v>17880</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>6840</v>
+        <v>6257</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>8191</v>
+        <v>9103</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>6829</v>
+        <v>7045</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>27687</v>
+        <v>27140</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>21334</v>
+        <v>21592</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>11021</v>
+        <v>10366</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>17089</v>
+        <v>17528</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>50487</v>
+        <v>50078</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>29876</v>
+        <v>31685</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>7090</v>
+        <v>7369</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>21871</v>
+        <v>22306</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>38637</v>
+        <v>37865</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>21031</v>
+        <v>20431</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>25806</v>
+        <v>25900</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>21740</v>
+        <v>21211</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>47276</v>
+        <v>46892</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>44874</v>
+        <v>43663</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>29713</v>
+        <v>28892</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>37519</v>
+        <v>38577</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>77933</v>
+        <v>79059</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>3447</v>
+        <v>3412</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>9236</v>
+        <v>9162</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3500</v>
+        <v>3436</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>17456</v>
+        <v>16388</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>7002</v>
+        <v>7090</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>11982</v>
+        <v>11612</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>10906</v>
+        <v>10251</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>25553</v>
+        <v>26373</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>12986</v>
+        <v>12547</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>24498</v>
+        <v>25266</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>16125</v>
+        <v>16380</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>46798</v>
+        <v>46759</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>16245</v>
+        <v>16251</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>26884</v>
+        <v>26772</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>14625</v>
+        <v>14632</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>36649</v>
+        <v>36186</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>21887</v>
+        <v>22163</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>30830</v>
+        <v>30571</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>29197</v>
+        <v>28032</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>43164</v>
+        <v>43785</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>32073</v>
+        <v>31176</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>49312</v>
+        <v>50430</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>37612</v>
+        <v>37613</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>73147</v>
+        <v>72284</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>12786</v>
+        <v>13499</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>32114</v>
+        <v>32755</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>11660</v>
+        <v>11738</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>35414</v>
+        <v>34473</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>8779</v>
+        <v>9027</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>16376</v>
+        <v>16266</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>12035</v>
+        <v>11884</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>22555</v>
+        <v>23219</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>25791</v>
+        <v>25934</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>52917</v>
+        <v>54311</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>26907</v>
+        <v>28662</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>62905</v>
+        <v>62234</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>30419</v>
+        <v>30720</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>60475</v>
+        <v>61697</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>28552</v>
+        <v>29028</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>61566</v>
+        <v>59672</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>24790</v>
+        <v>24815</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>35402</v>
+        <v>35795</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>30492</v>
+        <v>30497</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>39113</v>
+        <v>39126</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>49347</v>
+        <v>50086</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>87824</v>
+        <v>89425</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>54475</v>
+        <v>53683</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>93975</v>
+        <v>93505</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>33679</v>
+        <v>33629</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>63044</v>
+        <v>63630</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>43628</v>
+        <v>43484</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>99662</v>
+        <v>98342</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>20768</v>
+        <v>21115</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>42739</v>
+        <v>42502</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>52060</v>
+        <v>53129</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>74646</v>
+        <v>73781</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>59631</v>
+        <v>59789</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>111536</v>
+        <v>113170</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>104107</v>
+        <v>103592</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>180195</v>
+        <v>181354</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>58613</v>
+        <v>59946</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>101465</v>
+        <v>100954</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>73575</v>
+        <v>74154</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>138008</v>
+        <v>138619</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>41274</v>
+        <v>42956</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>72621</v>
+        <v>72598</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>86966</v>
+        <v>87999</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>100739</v>
+        <v>101367</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>94614</v>
+        <v>95496</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>158475</v>
+        <v>161695</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>149446</v>
+        <v>151942</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>229339</v>
+        <v>228789</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>8971</v>
+        <v>9053</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>16713</v>
+        <v>16702</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>28813</v>
+        <v>29611</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>40456</v>
+        <v>41014</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>15274</v>
+        <v>15494</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>80231</v>
+        <v>80901</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>67851</v>
+        <v>68355</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>131906</v>
+        <v>134039</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>28538</v>
+        <v>28800</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>102550</v>
+        <v>104419</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>106209</v>
+        <v>106235</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>181496</v>
+        <v>180089</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>25270</v>
+        <v>24989</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>35886</v>
+        <v>37284</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>53985</v>
+        <v>55709</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>66965</v>
+        <v>67843</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>34754</v>
+        <v>35006</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>118655</v>
+        <v>116644</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>105556</v>
+        <v>106400</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>169361</v>
+        <v>168501</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>54554</v>
+        <v>53250</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>144300</v>
+        <v>146693</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>151876</v>
+        <v>149852</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>226204</v>
+        <v>226352</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1940</v>
+        <v>1946</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1040</v>
+        <v>1049</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>939</v>
+        <v>951</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>2198</v>
+        <v>1759</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>64138</v>
+        <v>64206</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>113745</v>
+        <v>116034</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>93967</v>
+        <v>93667</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>102621</v>
+        <v>102444</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>69473</v>
+        <v>67117</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>121020</v>
+        <v>117877</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>95678</v>
+        <v>96766</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>106255</v>
+        <v>105856</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>11550</v>
+        <v>11653</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>12659</v>
+        <v>12863</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>8541</v>
+        <v>8752</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>11571</v>
+        <v>11567</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>98325</v>
+        <v>100900</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>155932</v>
+        <v>160405</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>138384</v>
+        <v>137748</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>136465</v>
+        <v>137035</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>108485</v>
+        <v>104468</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>168838</v>
+        <v>165690</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>139028</v>
+        <v>140705</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>142682</v>
+        <v>142085</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>96514</v>
+        <v>96028</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>146409</v>
+        <v>147928</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>116430</v>
+        <v>118316</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>245608</v>
+        <v>245346</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>150130</v>
+        <v>151802</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>312675</v>
+        <v>311827</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>285768</v>
+        <v>285563</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>421740</v>
+        <v>423227</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>256334</v>
+        <v>255106</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>476450</v>
+        <v>479564</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>417851</v>
+        <v>418874</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>683906</v>
+        <v>688743</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>137458</v>
+        <v>137199</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>202209</v>
+        <v>203919</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>162562</v>
+        <v>162552</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>306486</v>
+        <v>306242</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>202649</v>
+        <v>203778</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>385274</v>
+        <v>387238</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>357765</v>
+        <v>354470</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>488153</v>
+        <v>488081</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>324222</v>
+        <v>324792</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>571182</v>
+        <v>571902</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>503573</v>
+        <v>506378</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>774903</v>
+        <v>775370</v>
       </c>
     </row>
     <row r="32">
